--- a/biology/Mycologie/Puccinia_komarovii/Puccinia_komarovii.xlsx
+++ b/biology/Mycologie/Puccinia_komarovii/Puccinia_komarovii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puccinia komarovii est une espèce de champignons de la famille des Pucciniaceae (les « rouilles »). 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignon microscopique parasite diverses espèces de plantes à fleurs du genre Impatiens[1] en provoquant chez ces dernières une rouille qui entrave leur développement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon microscopique parasite diverses espèces de plantes à fleurs du genre Impatiens en provoquant chez ces dernières une rouille qui entrave leur développement.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Agent de bio-contrôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une variété de cette espèce, Puccinia komarovii var. glanduliferae, fait l'objet d'expérimentations pour une utilisation en tant qu'agent de bio-contrôle de l'espèce végétale Balsamine de l'Himalaya considérée comme envahissante dans certaines parties du monde[2],[3].
-L'expérience menée par le CABI, au Royaume-Uni, depuis 2006, avec deux phases successives d'études, la première de 2015 à 2016, la seconde de 2017 à 2018, a connu des résultats variables montrant des résistances de certaines variétés de balsamine à l'infection par ce champignon[2].
-Il s’agit du premier agent phytopathogène exotique dont la dissémination en milieu naturel a été autorisée en tant qu’agent de lutte biologique contre une plante exotique envahissante dans l’Union européenne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une variété de cette espèce, Puccinia komarovii var. glanduliferae, fait l'objet d'expérimentations pour une utilisation en tant qu'agent de bio-contrôle de l'espèce végétale Balsamine de l'Himalaya considérée comme envahissante dans certaines parties du monde,.
+L'expérience menée par le CABI, au Royaume-Uni, depuis 2006, avec deux phases successives d'études, la première de 2015 à 2016, la seconde de 2017 à 2018, a connu des résultats variables montrant des résistances de certaines variétés de balsamine à l'infection par ce champignon.
+Il s’agit du premier agent phytopathogène exotique dont la dissémination en milieu naturel a été autorisée en tant qu’agent de lutte biologique contre une plante exotique envahissante dans l’Union européenne.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Puccinia komarovii Tranzschel (d) ex P.Syd. (d) &amp; Syd. (d)[4],[5].
-Puccinia komarovii a pour synonyme[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Puccinia komarovii Tranzschel (d) ex P.Syd. (d) &amp; Syd. (d),.
+Puccinia komarovii a pour synonyme :
 Puccinia komarovii var. glanduliferae R.A.Tanner, C.A.Ellison, L.Kiss &amp; H.C.Evans</t>
         </is>
       </c>
